--- a/anexo/best-genetic/results.xlsx
+++ b/anexo/best-genetic/results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="196">
   <si>
     <t xml:space="preserve"> 0.6169685981711657</t>
   </si>
@@ -610,7 +610,10 @@
     <t>Soma5MelhoresPorIteração</t>
   </si>
   <si>
-    <t>a partir da 17 não melhorou, mas fizemos 30</t>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>a partir do 17 não melhorou, mas foram feitos 30 testes</t>
   </si>
 </sst>
 </file>
@@ -7332,8 +7335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:P91"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R148" sqref="R148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7343,10 +7346,10 @@
     <col min="11" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>184</v>
       </c>
@@ -7395,8 +7398,11 @@
       <c r="P1" s="6" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -7446,8 +7452,12 @@
         <f>SUM(J2:J6)</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R2">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>0</v>
       </c>
@@ -7494,8 +7504,12 @@
         <v>1</v>
       </c>
       <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>0</v>
       </c>
@@ -7542,8 +7556,12 @@
         <v>2</v>
       </c>
       <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>0</v>
       </c>
@@ -7590,8 +7608,12 @@
         <v>3</v>
       </c>
       <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>0</v>
       </c>
@@ -7638,8 +7660,12 @@
         <v>4</v>
       </c>
       <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>0</v>
       </c>
@@ -7689,8 +7715,12 @@
         <f t="shared" ref="P3:P66" si="0">SUM(J7:J11)</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>0</v>
       </c>
@@ -7737,8 +7767,12 @@
         <v>6</v>
       </c>
       <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>0</v>
       </c>
@@ -7785,8 +7819,12 @@
         <v>7</v>
       </c>
       <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>0</v>
       </c>
@@ -7833,8 +7871,12 @@
         <v>8</v>
       </c>
       <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>0</v>
       </c>
@@ -7881,8 +7923,12 @@
         <v>9</v>
       </c>
       <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>0</v>
       </c>
@@ -7932,8 +7978,12 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R12">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>0</v>
       </c>
@@ -7980,8 +8030,12 @@
         <v>11</v>
       </c>
       <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R13">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>0</v>
       </c>
@@ -8028,8 +8082,12 @@
         <v>12</v>
       </c>
       <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>0</v>
       </c>
@@ -8076,8 +8134,12 @@
         <v>13</v>
       </c>
       <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>0</v>
       </c>
@@ -8124,8 +8186,12 @@
         <v>14</v>
       </c>
       <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>0</v>
       </c>
@@ -8175,8 +8241,12 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>0</v>
       </c>
@@ -8223,8 +8293,12 @@
         <v>16</v>
       </c>
       <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>0</v>
       </c>
@@ -8271,8 +8345,12 @@
         <v>17</v>
       </c>
       <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>0</v>
       </c>
@@ -8319,8 +8397,12 @@
         <v>18</v>
       </c>
       <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>0</v>
       </c>
@@ -8367,8 +8449,12 @@
         <v>19</v>
       </c>
       <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R21">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>0</v>
       </c>
@@ -8418,8 +8504,12 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R22">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>0</v>
       </c>
@@ -8466,8 +8556,12 @@
         <v>21</v>
       </c>
       <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>0</v>
       </c>
@@ -8514,8 +8608,12 @@
         <v>22</v>
       </c>
       <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>0</v>
       </c>
@@ -8562,8 +8660,12 @@
         <v>23</v>
       </c>
       <c r="P25" s="12"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R25">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>0</v>
       </c>
@@ -8610,8 +8712,12 @@
         <v>24</v>
       </c>
       <c r="P26" s="12"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>0</v>
       </c>
@@ -8661,8 +8767,12 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>0</v>
       </c>
@@ -8709,8 +8819,12 @@
         <v>26</v>
       </c>
       <c r="P28" s="12"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R28">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>0</v>
       </c>
@@ -8757,8 +8871,12 @@
         <v>27</v>
       </c>
       <c r="P29" s="12"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>0</v>
       </c>
@@ -8805,8 +8923,12 @@
         <v>28</v>
       </c>
       <c r="P30" s="12"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>100</v>
       </c>
@@ -8853,8 +8975,12 @@
         <v>29</v>
       </c>
       <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>0</v>
       </c>
@@ -8904,8 +9030,12 @@
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>0</v>
       </c>
@@ -8952,8 +9082,12 @@
         <v>31</v>
       </c>
       <c r="P33" s="12"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>0</v>
       </c>
@@ -9000,8 +9134,12 @@
         <v>32</v>
       </c>
       <c r="P34" s="12"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>100</v>
       </c>
@@ -9048,8 +9186,12 @@
         <v>33</v>
       </c>
       <c r="P35" s="12"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>100</v>
       </c>
@@ -9096,8 +9238,12 @@
         <v>34</v>
       </c>
       <c r="P36" s="12"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>0</v>
       </c>
@@ -9147,8 +9293,12 @@
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>0</v>
       </c>
@@ -9195,8 +9345,12 @@
         <v>36</v>
       </c>
       <c r="P38" s="12"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>100</v>
       </c>
@@ -9243,8 +9397,12 @@
         <v>37</v>
       </c>
       <c r="P39" s="12"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R39">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>0</v>
       </c>
@@ -9291,8 +9449,12 @@
         <v>38</v>
       </c>
       <c r="P40" s="12"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R40">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>100</v>
       </c>
@@ -9339,8 +9501,12 @@
         <v>39</v>
       </c>
       <c r="P41" s="12"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>0</v>
       </c>
@@ -9390,8 +9556,12 @@
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R42">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>0</v>
       </c>
@@ -9438,8 +9608,12 @@
         <v>41</v>
       </c>
       <c r="P43" s="12"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R43">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>100</v>
       </c>
@@ -9486,8 +9660,12 @@
         <v>42</v>
       </c>
       <c r="P44" s="12"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R44">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>0</v>
       </c>
@@ -9534,8 +9712,12 @@
         <v>43</v>
       </c>
       <c r="P45" s="12"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R45">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>100</v>
       </c>
@@ -9582,8 +9764,12 @@
         <v>44</v>
       </c>
       <c r="P46" s="12"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R46">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>0</v>
       </c>
@@ -9633,8 +9819,12 @@
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R47">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>0</v>
       </c>
@@ -9681,8 +9871,12 @@
         <v>46</v>
       </c>
       <c r="P48" s="12"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R48">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>100</v>
       </c>
@@ -9729,8 +9923,12 @@
         <v>47</v>
       </c>
       <c r="P49" s="12"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R49">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>0</v>
       </c>
@@ -9777,8 +9975,12 @@
         <v>48</v>
       </c>
       <c r="P50" s="12"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R50">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>100</v>
       </c>
@@ -9825,8 +10027,12 @@
         <v>49</v>
       </c>
       <c r="P51" s="12"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R51">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>0</v>
       </c>
@@ -9876,8 +10082,12 @@
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R52">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>0</v>
       </c>
@@ -9924,8 +10134,12 @@
         <v>51</v>
       </c>
       <c r="P53" s="12"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R53">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>100</v>
       </c>
@@ -9972,8 +10186,12 @@
         <v>52</v>
       </c>
       <c r="P54" s="12"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R54">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>0</v>
       </c>
@@ -10020,8 +10238,12 @@
         <v>53</v>
       </c>
       <c r="P55" s="12"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R55">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>100</v>
       </c>
@@ -10068,8 +10290,12 @@
         <v>54</v>
       </c>
       <c r="P56" s="12"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R56">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>0</v>
       </c>
@@ -10119,8 +10345,12 @@
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R57">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>0</v>
       </c>
@@ -10167,8 +10397,12 @@
         <v>56</v>
       </c>
       <c r="P58" s="12"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R58">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>100</v>
       </c>
@@ -10215,8 +10449,12 @@
         <v>57</v>
       </c>
       <c r="P59" s="12"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R59">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>0</v>
       </c>
@@ -10263,8 +10501,12 @@
         <v>58</v>
       </c>
       <c r="P60" s="12"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R60">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>100</v>
       </c>
@@ -10311,8 +10553,12 @@
         <v>59</v>
       </c>
       <c r="P61" s="12"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R61">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>0</v>
       </c>
@@ -10362,8 +10608,12 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R62">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>100</v>
       </c>
@@ -10410,8 +10660,12 @@
         <v>61</v>
       </c>
       <c r="P63" s="12"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R63">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>0</v>
       </c>
@@ -10458,8 +10712,12 @@
         <v>62</v>
       </c>
       <c r="P64" s="12"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R64">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>0</v>
       </c>
@@ -10506,8 +10764,12 @@
         <v>63</v>
       </c>
       <c r="P65" s="12"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R65">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>100</v>
       </c>
@@ -10554,8 +10816,12 @@
         <v>64</v>
       </c>
       <c r="P66" s="12"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R66">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>0</v>
       </c>
@@ -10605,8 +10871,12 @@
         <f t="shared" ref="P67:P130" si="1">SUM(J67:J71)</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R67">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>100</v>
       </c>
@@ -10653,8 +10923,12 @@
         <v>66</v>
       </c>
       <c r="P68" s="12"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R68">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>0</v>
       </c>
@@ -10701,8 +10975,12 @@
         <v>67</v>
       </c>
       <c r="P69" s="12"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R69">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>0</v>
       </c>
@@ -10749,8 +11027,12 @@
         <v>68</v>
       </c>
       <c r="P70" s="12"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R70">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>100</v>
       </c>
@@ -10797,8 +11079,12 @@
         <v>69</v>
       </c>
       <c r="P71" s="12"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R71">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>0</v>
       </c>
@@ -10848,8 +11134,12 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R72">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>100</v>
       </c>
@@ -10896,8 +11186,12 @@
         <v>71</v>
       </c>
       <c r="P73" s="12"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R73">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>0</v>
       </c>
@@ -10944,8 +11238,12 @@
         <v>72</v>
       </c>
       <c r="P74" s="12"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R74">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>0</v>
       </c>
@@ -10992,8 +11290,12 @@
         <v>73</v>
       </c>
       <c r="P75" s="12"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R75">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>100</v>
       </c>
@@ -11040,8 +11342,12 @@
         <v>74</v>
       </c>
       <c r="P76" s="12"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R76">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>100</v>
       </c>
@@ -11091,8 +11397,12 @@
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R77">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>0</v>
       </c>
@@ -11139,8 +11449,12 @@
         <v>76</v>
       </c>
       <c r="P78" s="12"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R78">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>0</v>
       </c>
@@ -11187,8 +11501,12 @@
         <v>77</v>
       </c>
       <c r="P79" s="12"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R79">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>100</v>
       </c>
@@ -11235,8 +11553,12 @@
         <v>78</v>
       </c>
       <c r="P80" s="12"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R80">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>100</v>
       </c>
@@ -11283,8 +11605,12 @@
         <v>79</v>
       </c>
       <c r="P81" s="12"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R81">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>0</v>
       </c>
@@ -11334,8 +11660,12 @@
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R82">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>0</v>
       </c>
@@ -11382,8 +11712,12 @@
         <v>81</v>
       </c>
       <c r="P83" s="12"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R83">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>100</v>
       </c>
@@ -11430,8 +11764,12 @@
         <v>82</v>
       </c>
       <c r="P84" s="12"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R84">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>0</v>
       </c>
@@ -11478,8 +11816,12 @@
         <v>83</v>
       </c>
       <c r="P85" s="12"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R85">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
         <v>100</v>
       </c>
@@ -11526,8 +11868,12 @@
         <v>84</v>
       </c>
       <c r="P86" s="12"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R86">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>0</v>
       </c>
@@ -11577,8 +11923,12 @@
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R87">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
         <v>100</v>
       </c>
@@ -11625,8 +11975,12 @@
         <v>86</v>
       </c>
       <c r="P88" s="12"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R88">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>100</v>
       </c>
@@ -11673,8 +12027,12 @@
         <v>87</v>
       </c>
       <c r="P89" s="12"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R89">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>100</v>
       </c>
@@ -11721,8 +12079,12 @@
         <v>88</v>
       </c>
       <c r="P90" s="12"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R90">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>100</v>
       </c>
@@ -11769,8 +12131,12 @@
         <v>89</v>
       </c>
       <c r="P91" s="12"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R91">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -11820,8 +12186,12 @@
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R92">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>100</v>
       </c>
@@ -11868,8 +12238,12 @@
         <v>91</v>
       </c>
       <c r="P93" s="1"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R93">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>100</v>
       </c>
@@ -11916,8 +12290,12 @@
         <v>92</v>
       </c>
       <c r="P94" s="1"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R94">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>100</v>
       </c>
@@ -11964,8 +12342,12 @@
         <v>93</v>
       </c>
       <c r="P95" s="1"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R95">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>100</v>
       </c>
@@ -12012,8 +12394,12 @@
         <v>94</v>
       </c>
       <c r="P96" s="1"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R96">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -12063,8 +12449,12 @@
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R97">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>100</v>
       </c>
@@ -12111,8 +12501,12 @@
         <v>96</v>
       </c>
       <c r="P98" s="1"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R98">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>100</v>
       </c>
@@ -12159,8 +12553,12 @@
         <v>97</v>
       </c>
       <c r="P99" s="1"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R99">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -12207,8 +12605,12 @@
         <v>98</v>
       </c>
       <c r="P100" s="1"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R100">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -12255,8 +12657,12 @@
         <v>99</v>
       </c>
       <c r="P101" s="1"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R101">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -12306,8 +12712,12 @@
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R102">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>100</v>
       </c>
@@ -12354,8 +12764,12 @@
         <v>101</v>
       </c>
       <c r="P103" s="1"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R103">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -12402,8 +12816,12 @@
         <v>102</v>
       </c>
       <c r="P104" s="1"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R104">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>100</v>
       </c>
@@ -12450,8 +12868,12 @@
         <v>103</v>
       </c>
       <c r="P105" s="1"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R105">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>100</v>
       </c>
@@ -12498,8 +12920,12 @@
         <v>104</v>
       </c>
       <c r="P106" s="1"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R106">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -12549,8 +12975,12 @@
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R107">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>100</v>
       </c>
@@ -12597,8 +13027,12 @@
         <v>106</v>
       </c>
       <c r="P108" s="1"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R108">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>100</v>
       </c>
@@ -12645,8 +13079,12 @@
         <v>107</v>
       </c>
       <c r="P109" s="1"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R109">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>100</v>
       </c>
@@ -12693,8 +13131,12 @@
         <v>108</v>
       </c>
       <c r="P110" s="1"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R110">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>100</v>
       </c>
@@ -12741,8 +13183,12 @@
         <v>109</v>
       </c>
       <c r="P111" s="1"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R111">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>0</v>
       </c>
@@ -12792,8 +13238,12 @@
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R112">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>100</v>
       </c>
@@ -12840,8 +13290,12 @@
         <v>111</v>
       </c>
       <c r="P113" s="1"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R113">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>100</v>
       </c>
@@ -12888,8 +13342,12 @@
         <v>112</v>
       </c>
       <c r="P114" s="1"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R114">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>100</v>
       </c>
@@ -12936,8 +13394,12 @@
         <v>113</v>
       </c>
       <c r="P115" s="1"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R115">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>100</v>
       </c>
@@ -12984,8 +13446,12 @@
         <v>114</v>
       </c>
       <c r="P116" s="1"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R116">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>100</v>
       </c>
@@ -13035,8 +13501,12 @@
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R117">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>100</v>
       </c>
@@ -13083,8 +13553,12 @@
         <v>116</v>
       </c>
       <c r="P118" s="1"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R118">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>100</v>
       </c>
@@ -13131,8 +13605,12 @@
         <v>117</v>
       </c>
       <c r="P119" s="1"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R119">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>100</v>
       </c>
@@ -13179,8 +13657,12 @@
         <v>118</v>
       </c>
       <c r="P120" s="1"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R120">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>100</v>
       </c>
@@ -13227,8 +13709,12 @@
         <v>119</v>
       </c>
       <c r="P121" s="1"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R121">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>100</v>
       </c>
@@ -13278,8 +13764,12 @@
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R122">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>100</v>
       </c>
@@ -13326,8 +13816,12 @@
         <v>121</v>
       </c>
       <c r="P123" s="1"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R123">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>100</v>
       </c>
@@ -13374,8 +13868,12 @@
         <v>122</v>
       </c>
       <c r="P124" s="1"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R124">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>100</v>
       </c>
@@ -13422,8 +13920,12 @@
         <v>123</v>
       </c>
       <c r="P125" s="1"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R125">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>100</v>
       </c>
@@ -13470,8 +13972,12 @@
         <v>124</v>
       </c>
       <c r="P126" s="1"/>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R126">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>100</v>
       </c>
@@ -13521,8 +14027,12 @@
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R127">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>100</v>
       </c>
@@ -13569,8 +14079,12 @@
         <v>126</v>
       </c>
       <c r="P128" s="1"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R128">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>100</v>
       </c>
@@ -13617,8 +14131,12 @@
         <v>127</v>
       </c>
       <c r="P129" s="1"/>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R129">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>100</v>
       </c>
@@ -13665,8 +14183,12 @@
         <v>128</v>
       </c>
       <c r="P130" s="1"/>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R130">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>100</v>
       </c>
@@ -13713,8 +14235,12 @@
         <v>129</v>
       </c>
       <c r="P131" s="1"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R131">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>100</v>
       </c>
@@ -13764,8 +14290,12 @@
         <f t="shared" ref="P131:P156" si="2">SUM(J132:J136)</f>
         <v>1700</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R132">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>100</v>
       </c>
@@ -13812,8 +14342,12 @@
         <v>131</v>
       </c>
       <c r="P133" s="1"/>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R133">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>100</v>
       </c>
@@ -13860,8 +14394,12 @@
         <v>132</v>
       </c>
       <c r="P134" s="1"/>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R134">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>100</v>
       </c>
@@ -13908,8 +14446,12 @@
         <v>133</v>
       </c>
       <c r="P135" s="1"/>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R135">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>100</v>
       </c>
@@ -13956,8 +14498,12 @@
         <v>134</v>
       </c>
       <c r="P136" s="1"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R136">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>100</v>
       </c>
@@ -14007,8 +14553,12 @@
         <f t="shared" si="2"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R137">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>100</v>
       </c>
@@ -14055,8 +14605,12 @@
         <v>136</v>
       </c>
       <c r="P138" s="1"/>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R138">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -14103,8 +14657,12 @@
         <v>137</v>
       </c>
       <c r="P139" s="1"/>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R139">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>100</v>
       </c>
@@ -14151,8 +14709,12 @@
         <v>138</v>
       </c>
       <c r="P140" s="1"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R140">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>100</v>
       </c>
@@ -14199,8 +14761,12 @@
         <v>139</v>
       </c>
       <c r="P141" s="1"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R141">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>100</v>
       </c>
@@ -14250,8 +14816,12 @@
         <f t="shared" si="2"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R142">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>100</v>
       </c>
@@ -14298,8 +14868,12 @@
         <v>141</v>
       </c>
       <c r="P143" s="1"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R143">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -14346,6 +14920,10 @@
         <v>142</v>
       </c>
       <c r="P144" s="1"/>
+      <c r="R144">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
@@ -14394,6 +14972,10 @@
         <v>143</v>
       </c>
       <c r="P145" s="1"/>
+      <c r="R145">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
@@ -14442,6 +15024,10 @@
         <v>144</v>
       </c>
       <c r="P146" s="1"/>
+      <c r="R146">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
@@ -14493,6 +15079,10 @@
         <f t="shared" si="2"/>
         <v>1700</v>
       </c>
+      <c r="R147">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
@@ -14541,6 +15131,10 @@
         <v>146</v>
       </c>
       <c r="P148" s="1"/>
+      <c r="R148">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
@@ -14589,6 +15183,10 @@
         <v>147</v>
       </c>
       <c r="P149" s="1"/>
+      <c r="R149">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
@@ -14637,6 +15235,10 @@
         <v>148</v>
       </c>
       <c r="P150" s="1"/>
+      <c r="R150">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
@@ -14685,6 +15287,10 @@
         <v>149</v>
       </c>
       <c r="P151" s="1"/>
+      <c r="R151">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
@@ -14736,6 +15342,10 @@
         <f t="shared" si="2"/>
         <v>1700</v>
       </c>
+      <c r="R152">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>340</v>
+      </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
@@ -14784,6 +15394,10 @@
         <v>151</v>
       </c>
       <c r="P153" s="1"/>
+      <c r="R153">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
@@ -14832,6 +15446,10 @@
         <v>152</v>
       </c>
       <c r="P154" s="1"/>
+      <c r="R154">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
@@ -14880,6 +15498,10 @@
         <v>153</v>
       </c>
       <c r="P155" s="1"/>
+      <c r="R155">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
@@ -14928,8 +15550,9 @@
         <v>154</v>
       </c>
       <c r="P156" s="1"/>
-      <c r="R156" s="1" t="s">
-        <v>194</v>
+      <c r="R156">
+        <f>Table3[[#This Row],[Soma5MelhoresPorIteração]]/5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
@@ -15000,7 +15623,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="8"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -15017,7 +15640,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -15033,8 +15656,11 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -15051,7 +15677,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -15067,7 +15693,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -15084,7 +15710,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -15101,7 +15727,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -15118,7 +15744,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -15135,7 +15761,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -15152,7 +15778,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -15169,7 +15795,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -15186,7 +15812,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -15203,7 +15829,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -15220,7 +15846,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -15237,7 +15863,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -15254,7 +15880,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -15591,6 +16217,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
